--- a/NHIS variable list_Modified.xlsx
+++ b/NHIS variable list_Modified.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ncaandt-my.sharepoint.com/personal/hmoradi_ncat_edu/Documents/06_Codes/NHIS-surf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{D5C0F2D8-590C-5543-A8E4-295500E93607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{384DB21A-FA23-44E1-95FE-03AD0F389D79}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{D5C0F2D8-590C-5543-A8E4-295500E93607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF5B003D-DA9D-4460-8931-16ED286A2918}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AA949552-4F9F-40F0-90AF-3F34A678AD64}"/>
+    <workbookView xWindow="5535" yWindow="2250" windowWidth="21600" windowHeight="11160" xr2:uid="{AA949552-4F9F-40F0-90AF-3F34A678AD64}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="164">
   <si>
     <t>description</t>
   </si>
@@ -36,9 +36,6 @@
     <t>urbrrl</t>
   </si>
   <si>
-    <t>2013 urbal-rural classification</t>
-  </si>
-  <si>
     <t>region</t>
   </si>
   <si>
@@ -262,9 +259,6 @@
   </si>
   <si>
     <t>how often feel worried, nervous, or anxious</t>
-  </si>
-  <si>
-    <t>take medicaiton for worried/nervous/anxious feelings</t>
   </si>
   <si>
     <t>level of feelings when last felt worried/nervous/anxious</t>
@@ -481,9 +475,6 @@
     <t>hispallp_a</t>
   </si>
   <si>
-    <t>sinlge and multiple race groups</t>
-  </si>
-  <si>
     <t>single and multiple race groups with Hispanic origin</t>
   </si>
   <si>
@@ -505,9 +496,6 @@
     <t>desc.</t>
   </si>
   <si>
-    <t>Geographic</t>
-  </si>
-  <si>
     <t>Demographic</t>
   </si>
   <si>
@@ -521,6 +509,15 @@
   </si>
   <si>
     <t>Mental Health</t>
+  </si>
+  <si>
+    <t>2013 urban-rural classification</t>
+  </si>
+  <si>
+    <t>take medication for worried/nervous/anxious feelings</t>
+  </si>
+  <si>
+    <t>single and multiple race groups</t>
   </si>
 </sst>
 </file>
@@ -670,9 +667,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -710,7 +707,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -816,7 +813,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -958,7 +955,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -969,8 +966,8 @@
   <dimension ref="B1:G76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -983,7 +980,7 @@
   <sheetData>
     <row r="1" spans="2:5" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -992,7 +989,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
@@ -1000,7 +997,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>161</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>159</v>
@@ -1009,10 +1006,10 @@
     </row>
     <row r="3" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>159</v>
@@ -1021,826 +1018,826 @@
     </row>
     <row r="4" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" s="8" t="s">
         <v>7</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>8</v>
       </c>
       <c r="E4" s="12"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
       <c r="D5" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E5" s="12"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E6" s="11"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E7" s="11"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E8" s="11"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E11" s="11"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C13" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C14" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
         <v>19</v>
       </c>
-      <c r="C15" t="s">
-        <v>20</v>
-      </c>
       <c r="D15" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
         <v>27</v>
       </c>
-      <c r="C16" t="s">
-        <v>28</v>
-      </c>
       <c r="D16" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
         <v>29</v>
       </c>
-      <c r="C17" t="s">
-        <v>30</v>
-      </c>
       <c r="D17" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
         <v>31</v>
       </c>
-      <c r="C18" t="s">
-        <v>32</v>
-      </c>
       <c r="D18" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C20" t="s">
-        <v>79</v>
+        <v>162</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C23" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C24" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C26" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C27" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
         <v>9</v>
       </c>
-      <c r="C28" t="s">
-        <v>10</v>
-      </c>
       <c r="D28" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" t="s">
         <v>11</v>
       </c>
-      <c r="C29" t="s">
-        <v>12</v>
-      </c>
       <c r="D29" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" t="s">
         <v>13</v>
       </c>
-      <c r="C30" t="s">
-        <v>14</v>
-      </c>
       <c r="D30" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" t="s">
         <v>15</v>
       </c>
-      <c r="C31" t="s">
-        <v>16</v>
-      </c>
       <c r="D31" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" t="s">
         <v>21</v>
       </c>
-      <c r="C32" t="s">
-        <v>22</v>
-      </c>
       <c r="D32" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" t="s">
         <v>25</v>
       </c>
-      <c r="C33" t="s">
-        <v>26</v>
-      </c>
       <c r="D33" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" t="s">
         <v>33</v>
       </c>
-      <c r="C34" t="s">
-        <v>34</v>
-      </c>
       <c r="D34" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" t="s">
         <v>49</v>
       </c>
-      <c r="C42" t="s">
-        <v>50</v>
-      </c>
       <c r="D42" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" t="s">
         <v>51</v>
       </c>
-      <c r="C43" t="s">
-        <v>52</v>
-      </c>
       <c r="D43" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" t="s">
         <v>53</v>
       </c>
-      <c r="C44" t="s">
-        <v>54</v>
-      </c>
       <c r="D44" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C46" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C49" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C50" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C51" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C53" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C54" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C55" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C56" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C57" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C58" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C59" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C60" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C61" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C62" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C63" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C64" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C65" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C68" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D68" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D68" s="6" t="s">
-        <v>103</v>
-      </c>
       <c r="G68" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D70" s="13" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D71" s="13" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D72" s="13" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G72" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D73" s="13" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D75" s="13" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G76" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/NHIS variable list_Modified.xlsx
+++ b/NHIS variable list_Modified.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ncaandt-my.sharepoint.com/personal/hmoradi_ncat_edu/Documents/06_Codes/NHIS-surf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{D5C0F2D8-590C-5543-A8E4-295500E93607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF5B003D-DA9D-4460-8931-16ED286A2918}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{D5C0F2D8-590C-5543-A8E4-295500E93607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60DBB83E-E150-4CD9-8D8E-B9E2FC60E38C}"/>
   <bookViews>
-    <workbookView xWindow="5535" yWindow="2250" windowWidth="21600" windowHeight="11160" xr2:uid="{AA949552-4F9F-40F0-90AF-3F34A678AD64}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AA949552-4F9F-40F0-90AF-3F34A678AD64}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -966,8 +966,8 @@
   <dimension ref="B1:G76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
